--- a/DungeonShooting_Godot/excel/Role.xlsx
+++ b/DungeonShooting_Godot/excel/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15660"/>
+    <workbookView windowWidth="20505" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -999,14 +999,12 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="31.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="27.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:1">
@@ -1040,7 +1038,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1057,7 +1055,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/Role.xlsx
+++ b/DungeonShooting_Godot/excel/Role.xlsx
@@ -16,9 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>物体唯一id
@@ -26,6 +41,45 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>[string]</t>
+  </si>
+  <si>
+    <t>{string: int}</t>
+  </si>
+  <si>
+    <t>[{string:[string]}]</t>
+  </si>
+  <si>
+    <t>vector2</t>
+  </si>
+  <si>
+    <t>[vector2]</t>
+  </si>
+  <si>
+    <t>["4a55"]</t>
+  </si>
+  <si>
+    <t>{
+"bbb": 123
+}</t>
+  </si>
+  <si>
+    <t>[
+{
+"abc": ["1", "a2"]
+}
+]</t>
+  </si>
+  <si>
+    <t>{"x":1,"y":11}</t>
+  </si>
+  <si>
+    <t>[
+{"x":1,"y":11},
+{"x":2,"y":22}
+]</t>
   </si>
 </sst>
 </file>
@@ -996,30 +1050,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:1">
+    <row r="1" ht="25" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="38" customHeight="1" spans="1:1">
+    <row r="2" ht="38" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="116" customHeight="1" spans="1:6">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/Role.xlsx
+++ b/DungeonShooting_Godot/excel/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20505" windowHeight="12330"/>
+    <workbookView windowWidth="30048" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -73,12 +73,40 @@
 ]</t>
   </si>
   <si>
-    <t>{"x":1,"y":11}</t>
+    <t>{"X":1,"Y":11}</t>
   </si>
   <si>
     <t>[
-{"x":1,"y":11},
-{"x":2,"y":22}
+{"X":1,"Y":11},
+{"X":2,"Y":22}
+]</t>
+  </si>
+  <si>
+    <t>["asdf", "a4sdf47"]</t>
+  </si>
+  <si>
+    <t>{
+"bbb": 123,
+"ccc": 4654
+}</t>
+  </si>
+  <si>
+    <t>[
+{
+"abc": ["1", "a2"]
+},
+{
+"cccasf": ["1", "a2", "654asdf"]
+}
+]</t>
+  </si>
+  <si>
+    <t>{"X":1.56,"Y":-44.55}</t>
+  </si>
+  <si>
+    <t>[
+{"X":-1,"Y":11.45},
+{"X":-2,"Y":22.4654}
 ]</t>
   </si>
 </sst>
@@ -1050,19 +1078,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="30.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1135,6 +1163,26 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="129.6" spans="1:6">
+      <c r="A5">
+        <v>321465</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1201,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1170,7 +1218,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
